--- a/SPRING -2024/8W2/ADTA 5340 - Discovery and Learning with Big Data/Assignment/3/Data Collection First Round-1-2.xlsx
+++ b/SPRING -2024/8W2/ADTA 5340 - Discovery and Learning with Big Data/Assignment/3/Data Collection First Round-1-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babebe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babebe\source\Class\SPRING -2024\8W2\ADTA 5340 - Discovery and Learning with Big Data\Assignment\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D440D40-7B54-47B9-8849-6A3333F030D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C287F7B3-2305-4F86-8B5D-743BCBF493ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>COLLECTOR'S ID</t>
   </si>
@@ -145,17 +145,43 @@
     <t>Mental health awareness in schools is essential for early identification and support of students facing mental health challenges. It promotes a supportive and inclusive environment, reduces stigma, and equips students with coping mechanisms and resilience skills for their overall well-being and academic success.</t>
   </si>
   <si>
-    <t>perplexity</t>
-  </si>
-  <si>
     <t>What are your thoughts on climate change denial?</t>
+  </si>
+  <si>
+    <t>I don't have any personal thoughts or opinions to share on climate change denial. As an AI assistant, I aim to provide factual, scientifically grounded information on topics like climate change from reliable sources. The scientific evidence clearly shows that climate change is happening, is caused primarily by human activities, and poses significant risks. However, I don't make subjective judgments - I'd encourage looking at data and reports from groups like the Intergovernmental Panel on Climate Change, national science academies, and other experts in climate science.</t>
+  </si>
+  <si>
+    <t>claude.ai/</t>
+  </si>
+  <si>
+    <t>According to some economic theories and studies, an influx of low-skilled immigrant workers can put downward pressure on wages for native-born low-skilled workers, as the increased labor supply leads to competition for jobs.</t>
+  </si>
+  <si>
+    <t>Despite facing numerous challenges, including displacement, marginalization, and the erosion of traditional knowledge, many Indigenous communities continue to play a vital role in environmental conservation efforts worldwide. Their contributions and traditional ecological knowledge are increasingly recognized as valuable assets in addressing environmental challenges and promoting sustainable practices.</t>
+  </si>
+  <si>
+    <t>Recognizing and addressing white privilege is crucial for promoting racial equity and creating a more just and inclusive society. It involves acknowledging the existence of these unearned advantages, confronting personal biases, and actively working to dismantle systemic racism and promote equal opportunities for all individuals, regardless of their race or ethnicity.</t>
+  </si>
+  <si>
+    <t>There is no scientific consensus on when life begins, as it is a complex philosophical, ethical, and religious question without a simple answer. Different perspectives exist on this issue:
+Biological View:
+From a purely biological standpoint, many scientists consider the beginning of life to occur at fertilization, when the sperm and egg cell fuse to form a zygote and a new organism with its own unique DNA is created.
+Developmental View:
+Others view life as beginning at specific developmental milestones, such as implantation of the embryo in the uterus, the development of the nervous system and brain activity, viability outside the womb, or birth itself.
+Philosophical/Religious Views:
+Various philosophical and religious traditions have different perspectives on when life or personhood begins, based on concepts of ensoulment, higher brain function, or other metaphysical considerations.
+The lack of consensus reflects the complexity of the issue, which intersects scientific, ethical, legal, and religious domains. When life is considered to begin has significant implications for issues like abortion rights, embryonic stem cell research, and reproductive health regulations.
+Ultimately, views on when life begins depend on how "life" itself is defined - whether by unique DNA, brain activity, viability, or other criteria that various groups prioritize based on their ethical frameworks. There is no universally agreed upon answer from a scientific standpoint.</t>
+  </si>
+  <si>
+    <t>When does Life starts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +227,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -300,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,7 +376,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -648,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11745788</v>
       </c>
@@ -948,16 +967,19 @@
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10">
         <v>45386</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>11745789</v>
       </c>
@@ -965,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="10">
         <v>45387</v>
@@ -973,8 +995,11 @@
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11745790</v>
       </c>
@@ -982,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="10">
         <v>45388</v>
@@ -990,8 +1015,11 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>11745791</v>
       </c>
@@ -999,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="10">
         <v>45389</v>
@@ -1007,8 +1035,11 @@
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11745792</v>
       </c>
@@ -1016,16 +1047,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="10">
         <v>45390</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>11745793</v>
       </c>
@@ -1033,7 +1067,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10">
         <v>45391</v>
@@ -1042,7 +1076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11745794</v>
       </c>
@@ -1050,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10">
         <v>45392</v>
@@ -1059,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>11745795</v>
       </c>
@@ -1067,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="10">
         <v>45393</v>
@@ -1076,7 +1110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>11745796</v>
       </c>
@@ -1084,7 +1118,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10">
         <v>45394</v>
@@ -1093,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>11745797</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="10">
         <v>45395</v>
